--- a/ReadingPDF/ScrappedPDFOutput.xlsx
+++ b/ReadingPDF/ScrappedPDFOutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <x:si>
     <x:t>FPT SOFTWARE</x:t>
   </x:si>
@@ -34,28 +34,22 @@
     <x:t>None</x:t>
   </x:si>
   <x:si>
-    <x:t>604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19080</x:t>
-  </x:si>
-  <x:si>
-    <x:t>579</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1322</x:t>
+    <x:t>Invoice Number 19071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Invoice Number 19074</x:t>
   </x:si>
   <x:si>
     <x:t>19074</x:t>
   </x:si>
   <x:si>
-    <x:t>1,054</x:t>
+    <x:t>Invoice Number 19075</x:t>
   </x:si>
   <x:si>
     <x:t>19075</x:t>
   </x:si>
   <x:si>
-    <x:t>574</x:t>
+    <x:t>Invoice Number 19076</x:t>
   </x:si>
   <x:si>
     <x:t>19076</x:t>
@@ -455,13 +449,10 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>3</x:v>
@@ -475,13 +466,10 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>3</x:v>
@@ -495,13 +483,10 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>3</x:v>
@@ -515,13 +500,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>3</x:v>
@@ -538,10 +520,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>3</x:v>
@@ -558,10 +540,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>3</x:v>
@@ -578,10 +560,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>3</x:v>
@@ -590,46 +572,6 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
